--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="24075" windowHeight="11790" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
   <si>
     <t>line</t>
   </si>
@@ -49,6 +44,9 @@
     <t>collect_config1</t>
   </si>
   <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+  </si>
+  <si>
     <t>gift_config2</t>
   </si>
   <si>
@@ -84,7 +82,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +92,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -106,7 +102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -117,7 +112,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -128,7 +122,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -139,7 +132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,7 +142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -161,7 +152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,42 +186,239 @@
     <t>xg_txt|限购描述</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"collect_words_xz_1","</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collect_words_wxz_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>恭字礼包</t>
   </si>
   <si>
     <t>"60万金币","2万小游戏币","恭字符*1",</t>
   </si>
   <si>
+    <t>"ty_icon_jb_6y","ty_icon_yxb_2","collect_words_1"</t>
+  </si>
+  <si>
     <t>"","","恭字符:可兑换奖励"</t>
   </si>
   <si>
     <t>每日限购3次</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"collect_words_xz_2","collect_words_wxz_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>喜字礼包</t>
   </si>
   <si>
     <t>"100万金币","3.8万小游戏币","喜字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_2"</t>
+    </r>
+  </si>
+  <si>
     <t>"","","喜字符:可兑换奖励"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"collect_words_xz_3","collect_words_wxz_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>发字礼包</t>
   </si>
   <si>
     <t>"180万金币","5万小游戏币","发字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_3"</t>
+    </r>
+  </si>
+  <si>
     <t>"","","发字符:可兑换奖励"</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"collect_words_xz_4","collect_words_wxz_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
     <t>财字礼包</t>
   </si>
   <si>
     <t>"480万金币","10万小游戏币","财字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>48y","ty_icon_yxb_4","collect_words_4"</t>
+    </r>
+  </si>
+  <si>
     <t>"","","财字符:可兑换奖励"</t>
   </si>
   <si>
@@ -240,7 +427,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -251,7 +437,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -262,27 +447,264 @@
     <t>"180万金币","5万小游戏币","恭字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_1"</t>
+    </r>
+  </si>
+  <si>
     <t>"480万金币","10万小游戏币","喜字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_4","collect_words_2"</t>
+    </r>
+  </si>
+  <si>
     <t>"980万金币","20万小游戏币","发字符*1",</t>
   </si>
   <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_5","collect_words_3"</t>
+  </si>
+  <si>
     <t>"1980万金币","40万小游戏币","财字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98y","ty_icon_yxb_5","collect_words_4"</t>
+    </r>
+  </si>
+  <si>
     <t>"480万金币","10万小游戏币","恭字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_2","collect_words_1"</t>
+    </r>
+  </si>
+  <si>
     <t>"980万金币","20万小游戏币","喜字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_2"</t>
+    </r>
+  </si>
+  <si>
     <t>"1980万金币","40万小游戏币","发字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_198y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_3"</t>
+    </r>
+  </si>
+  <si>
     <t>"4980万金币","80万小游戏币","财字符*1",</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_498y","ty_icon_yxb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","collect_words_4"</t>
+    </r>
+  </si>
+  <si>
     <t>exchange_type|兑换类型</t>
   </si>
   <si>
@@ -295,6 +717,9 @@
     <t>need_item|需要的item_key</t>
   </si>
   <si>
+    <t>need_item_img|需要的item的图</t>
+  </si>
+  <si>
     <t>need_num|需要的item数量</t>
   </si>
   <si>
@@ -304,6 +729,9 @@
     <t>"prop_fclb_gong","prop_fclb_xi"</t>
   </si>
   <si>
+    <t>"collect_words_1_1","collect_words_2_1"</t>
+  </si>
+  <si>
     <t>1,1</t>
   </si>
   <si>
@@ -315,7 +743,215 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+  </si>
+  <si>
+    <t>"",</t>
+  </si>
+  <si>
+    <t>"prop_fclb_fa","prop_fclb_cai"</t>
+  </si>
+  <si>
+    <t>"collect_words_3_1","collect_words_4_1"</t>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+  </si>
+  <si>
+    <t>"collect_words_1_1","collect_words_2_1","collect_words_3_1","collect_words_4_1"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1,1</t>
+    </r>
+  </si>
+  <si>
+    <t>"50万金币",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+  </si>
+  <si>
+    <t>"150万金币",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"ty_icon_jb_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y",</t>
+    </r>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,7 +962,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -337,7 +972,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -345,51 +979,6 @@
     </r>
   </si>
   <si>
-    <t>"",</t>
-  </si>
-  <si>
-    <t>"prop_fclb_fa","prop_fclb_cai"</t>
-  </si>
-  <si>
-    <t>"30万金币",</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1,1</t>
-    </r>
-  </si>
-  <si>
-    <t>"50万金币",</t>
-  </si>
-  <si>
-    <t>"100万金币",</t>
-  </si>
-  <si>
-    <t>"150万金币",</t>
-  </si>
-  <si>
-    <t>"60万金币",</t>
-  </si>
-  <si>
     <t>"250万金币",</t>
   </si>
   <si>
@@ -397,85 +986,13 @@
   </si>
   <si>
     <r>
-      <t>"collect_words_xz_1","</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collect_words_wxz_1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"collect_words_xz_2","collect_words_wxz_2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"collect_words_xz_3","collect_words_wxz_3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"collect_words_xz_4","collect_words_wxz_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>"ty_icon_jb_</t>
     </r>
     <r>
@@ -483,589 +1000,34 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_2","collect_words_1"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_2","collect_words_2"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>48y","ty_icon_yxb_4","collect_words_4"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","collect_words_3"</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_2","collect_words_1"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_4","collect_words_2"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_5","collect_words_3"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98y","ty_icon_yxb_5","collect_words_4"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_2","collect_words_1"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y","ty_icon_yxb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","collect_words_2"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_198y","ty_icon_yxb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","collect_words_3"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"ty_icon_jb_498y","ty_icon_yxb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>","collect_words_4"</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>y",</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"ty_icon_jb_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>498</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y",</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
-  </si>
-  <si>
-    <t>发财礼包福利</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,7 +1039,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1085,33 +1046,154 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1120,24 +1202,210 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1145,13 +1413,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,24 +1686,65 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1242,7 +1793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,7 +1828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1480,26 +2031,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="43.875" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1524,7 +2075,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1549,18 +2100,18 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1574,18 +2125,18 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1599,7 +2150,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1616,7 +2167,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1633,7 +2184,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1650,7 +2201,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1667,7 +2218,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1684,7 +2235,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1701,7 +2252,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1718,7 +2269,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1735,7 +2286,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1752,7 +2303,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1769,7 +2320,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1786,7 +2337,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1803,7 +2354,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1820,7 +2371,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1837,7 +2388,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1854,7 +2405,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1871,7 +2422,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1888,7 +2439,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1905,7 +2456,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1922,7 +2473,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1939,7 +2490,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1956,7 +2507,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1973,7 +2524,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1990,7 +2541,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2007,7 +2558,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2024,7 +2575,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2042,21 +2593,22 @@
       <c r="O30" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="66.375" customWidth="1"/>
     <col min="3" max="3" width="19.875" customWidth="1"/>
@@ -2065,24 +2617,24 @@
     <col min="7" max="7" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2094,15 +2646,15 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3">
         <v>1611014400</v>
@@ -2123,7 +2675,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2140,7 +2692,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2157,7 +2709,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2174,7 +2726,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2191,7 +2743,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2208,7 +2760,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2225,7 +2777,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2242,7 +2794,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2259,7 +2811,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2276,7 +2828,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2293,7 +2845,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2310,7 +2862,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2327,7 +2879,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2344,7 +2896,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2361,7 +2913,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2378,7 +2930,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2395,7 +2947,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2412,7 +2964,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2429,7 +2981,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2446,7 +2998,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2463,7 +3015,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2480,7 +3032,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2497,7 +3049,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2514,7 +3066,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2531,7 +3083,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2548,7 +3100,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2566,21 +3118,22 @@
       <c r="O28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
@@ -2592,33 +3145,33 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2628,33 +3181,33 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>10437</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>73</v>
+        <v>30</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2664,33 +3217,33 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>10438</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2700,33 +3253,33 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>10439</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>76</v>
+        <v>41</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2736,33 +3289,33 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>10440</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>75</v>
+        <v>46</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2772,7 +3325,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2790,7 +3343,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2808,7 +3361,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2826,7 +3379,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2844,7 +3397,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2862,7 +3415,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2880,7 +3433,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2888,7 +3441,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2900,7 +3453,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2918,7 +3471,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2936,7 +3489,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2954,7 +3507,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2972,7 +3525,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2990,7 +3543,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3008,7 +3561,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3026,7 +3579,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3044,7 +3597,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3062,7 +3615,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3080,7 +3633,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3098,7 +3651,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3116,7 +3669,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3134,7 +3687,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3152,7 +3705,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3170,7 +3723,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3188,7 +3741,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3207,21 +3760,22 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
@@ -3233,33 +3787,33 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3269,33 +3823,33 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>10441</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3305,33 +3859,33 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>10442</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>78</v>
+        <v>52</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3341,33 +3895,33 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>10443</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3377,33 +3931,33 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>10444</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3413,7 +3967,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3431,7 +3985,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3449,7 +4003,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3467,7 +4021,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3485,7 +4039,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3503,7 +4057,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3521,7 +4075,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3529,7 +4083,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3541,7 +4095,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3559,7 +4113,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3577,7 +4131,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3595,7 +4149,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3613,7 +4167,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3631,7 +4185,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3649,7 +4203,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3667,7 +4221,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3685,7 +4239,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3703,7 +4257,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3721,7 +4275,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3739,7 +4293,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3757,7 +4311,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3775,7 +4329,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3793,7 +4347,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3811,7 +4365,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3829,7 +4383,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3848,20 +4402,21 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
@@ -3873,33 +4428,33 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3909,33 +4464,33 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>10445</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>69</v>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3">
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3945,33 +4500,33 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>10446</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>70</v>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3981,33 +4536,33 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6">
         <v>10447</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>71</v>
+      <c r="C4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
         <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4017,33 +4572,33 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6">
         <v>10448</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>72</v>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>498</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4053,7 +4608,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4071,7 +4626,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4089,7 +4644,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4107,7 +4662,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4125,7 +4680,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4143,7 +4698,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4161,7 +4716,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4169,7 +4724,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4181,7 +4736,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4199,7 +4754,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4217,7 +4772,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4235,7 +4790,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4253,7 +4808,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4271,7 +4826,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4289,7 +4844,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4307,7 +4862,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4325,7 +4880,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4343,7 +4898,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4361,7 +4916,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4379,7 +4934,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4397,7 +4952,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4415,7 +4970,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4433,7 +4988,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4451,7 +5006,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4469,7 +5024,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4488,51 +5043,53 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="6" max="6" width="88.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>24</v>
@@ -4540,7 +5097,9 @@
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -4549,8 +5108,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4561,24 +5121,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -4587,8 +5149,9 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4599,24 +5162,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4625,8 +5190,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4637,24 +5203,26 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -4663,8 +5231,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4683,8 +5252,9 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4703,8 +5273,9 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4723,8 +5294,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4743,8 +5315,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4763,8 +5336,9 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4783,8 +5357,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4803,8 +5378,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4823,8 +5399,9 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4843,8 +5420,9 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4863,8 +5441,9 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4883,8 +5462,9 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4903,8 +5483,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4923,8 +5504,9 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4943,8 +5525,9 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4963,8 +5546,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4983,8 +5567,9 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5003,8 +5588,9 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5023,8 +5609,9 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5043,8 +5630,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5063,8 +5651,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5083,8 +5672,9 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5103,8 +5693,9 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5123,8 +5714,9 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5143,22 +5735,24 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
@@ -5169,33 +5763,33 @@
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5207,7 +5801,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5218,22 +5812,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5245,7 +5839,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5256,22 +5850,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5283,7 +5877,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5294,22 +5888,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="8" t="s">
         <v>89</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5321,7 +5915,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5341,7 +5935,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5361,7 +5955,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5381,7 +5975,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5401,7 +5995,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5421,7 +6015,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5441,7 +6035,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5461,7 +6055,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5481,7 +6075,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5501,7 +6095,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5521,7 +6115,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5541,7 +6135,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5561,7 +6155,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5581,7 +6175,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5601,7 +6195,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5621,7 +6215,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5641,7 +6235,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5661,7 +6255,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5681,7 +6275,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5701,7 +6295,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5721,7 +6315,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5741,7 +6335,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5761,7 +6355,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5781,7 +6375,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5802,20 +6396,21 @@
       <c r="R28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
@@ -5826,33 +6421,33 @@
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5864,7 +6459,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5875,22 +6470,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5902,7 +6497,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5913,22 +6508,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5940,7 +6535,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5951,22 +6546,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -5978,7 +6573,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5998,7 +6593,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6018,7 +6613,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6038,7 +6633,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6058,7 +6653,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6078,7 +6673,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6098,7 +6693,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6118,7 +6713,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6138,7 +6733,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6158,7 +6753,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6178,7 +6773,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6198,7 +6793,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6218,7 +6813,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6238,7 +6833,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6258,7 +6853,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6278,7 +6873,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6298,7 +6893,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6318,7 +6913,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6338,7 +6933,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6358,7 +6953,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6378,7 +6973,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6398,7 +6993,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6418,7 +7013,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6438,7 +7033,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6459,7 +7054,7 @@
       <c r="R28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24075" windowHeight="11790" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="24075" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
   <si>
     <t>line</t>
   </si>
@@ -65,6 +65,9 @@
     <t>item_key|道具的key</t>
   </si>
   <si>
+    <t>item_key_img|道具的key的图片</t>
+  </si>
+  <si>
     <t>item_name|道具统称</t>
   </si>
   <si>
@@ -159,6 +162,9 @@
     </r>
   </si>
   <si>
+    <t>"collect_words_1_1","collect_words_2_1","collect_words_3_1","collect_words_4_1"</t>
+  </si>
+  <si>
     <t>字符</t>
   </si>
   <si>
@@ -812,9 +818,6 @@
       </rPr>
       <t>y",</t>
     </r>
-  </si>
-  <si>
-    <t>"collect_words_1_1","collect_words_2_1","collect_words_3_1","collect_words_4_1"</t>
   </si>
   <si>
     <r>
@@ -2602,22 +2605,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C2 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="66.375" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="88.25" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2640,9 @@
       <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2645,27 +2651,30 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3">
         <v>1611014400</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>1611590399</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2674,8 +2683,9 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2691,8 +2701,9 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2708,8 +2719,9 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2725,8 +2737,9 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2742,8 +2755,9 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2759,8 +2773,9 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2776,8 +2791,9 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2793,8 +2809,9 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2810,8 +2827,9 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2827,8 +2845,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2844,8 +2863,9 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2861,8 +2881,9 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2878,8 +2899,9 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2895,8 +2917,9 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2912,8 +2935,9 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2929,8 +2953,9 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2946,8 +2971,9 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2963,8 +2989,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2980,8 +3007,9 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2997,8 +3025,9 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3014,8 +3043,9 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3031,8 +3061,9 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3048,8 +3079,9 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3065,8 +3097,9 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3082,8 +3115,9 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3099,8 +3133,9 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3116,6 +3151,7 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3150,28 +3186,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3189,25 +3225,25 @@
         <v>10437</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3225,25 +3261,25 @@
         <v>10438</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3261,25 +3297,25 @@
         <v>10439</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3297,25 +3333,25 @@
         <v>10440</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3441,7 +3477,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3792,28 +3828,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3831,25 +3867,25 @@
         <v>10441</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3867,25 +3903,25 @@
         <v>10442</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3903,25 +3939,25 @@
         <v>10443</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3939,25 +3975,25 @@
         <v>10444</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4083,7 +4119,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4433,28 +4469,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -4472,25 +4508,25 @@
         <v>10445</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4508,25 +4544,25 @@
         <v>10446</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -4544,25 +4580,25 @@
         <v>10447</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3">
         <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4580,25 +4616,25 @@
         <v>10448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>498</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4724,7 +4760,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -5053,8 +5089,8 @@
   <sheetPr/>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5074,31 +5110,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5121,25 +5157,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5162,25 +5198,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5203,25 +5239,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5768,28 +5804,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -5812,22 +5848,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -5850,22 +5886,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5888,22 +5924,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -6426,28 +6462,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -6470,22 +6506,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -6508,22 +6544,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -6546,22 +6582,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>

--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24075" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="97">
   <si>
     <t>line</t>
   </si>
@@ -1023,14 +1028,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,151 +1051,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,210 +1066,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1416,251 +1091,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1693,61 +1126,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2034,26 +1423,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="43.875" customWidth="1"/>
     <col min="3" max="3" width="28.375" customWidth="1"/>
     <col min="4" max="4" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +1467,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2103,7 +1492,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2128,7 +1517,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2153,7 +1542,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2170,7 +1559,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2187,7 +1576,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2204,7 +1593,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2221,7 +1610,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2238,7 +1627,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2255,7 +1644,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2272,7 +1661,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2289,7 +1678,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2306,7 +1695,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2323,7 +1712,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2340,7 +1729,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2357,7 +1746,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2374,7 +1763,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2391,7 +1780,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2408,7 +1797,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2425,7 +1814,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2442,7 +1831,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2459,7 +1848,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2476,7 +1865,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2493,7 +1882,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2510,7 +1899,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2527,7 +1916,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2544,7 +1933,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2561,7 +1950,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2578,7 +1967,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2596,22 +1985,21 @@
       <c r="O30" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C2 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="66.375" customWidth="1"/>
     <col min="3" max="3" width="88.25" customWidth="1"/>
@@ -2621,7 +2009,7 @@
     <col min="8" max="8" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2041,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2685,7 +2073,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2703,7 +2091,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2721,7 +2109,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2739,7 +2127,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2757,7 +2145,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2775,7 +2163,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2793,7 +2181,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2811,7 +2199,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2829,7 +2217,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2847,7 +2235,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2865,7 +2253,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2883,7 +2271,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2901,7 +2289,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2919,7 +2307,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2937,7 +2325,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2955,7 +2343,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2973,7 +2361,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2991,7 +2379,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3009,7 +2397,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3027,7 +2415,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3045,7 +2433,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3063,7 +2451,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3081,7 +2469,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3099,7 +2487,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3117,7 +2505,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3135,7 +2523,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3154,22 +2542,21 @@
       <c r="P28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="48.625" customWidth="1"/>
@@ -3181,7 +2568,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +2604,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3253,7 +2640,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3289,7 +2676,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3325,7 +2712,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3361,7 +2748,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3379,7 +2766,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3397,7 +2784,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3415,7 +2802,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3433,7 +2820,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3451,7 +2838,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3469,7 +2856,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3489,7 +2876,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3507,7 +2894,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3525,7 +2912,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3543,7 +2930,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3561,7 +2948,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3579,7 +2966,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3597,7 +2984,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3615,7 +3002,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3633,7 +3020,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3651,7 +3038,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3669,7 +3056,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3687,7 +3074,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3705,7 +3092,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3723,7 +3110,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3741,7 +3128,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3759,7 +3146,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3777,7 +3164,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3796,22 +3183,21 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
@@ -3823,7 +3209,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3859,7 +3245,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3895,7 +3281,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3931,7 +3317,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3967,7 +3353,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4003,7 +3389,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4021,7 +3407,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4039,7 +3425,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4057,7 +3443,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4075,7 +3461,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4093,7 +3479,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4111,7 +3497,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4131,7 +3517,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4149,7 +3535,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4167,7 +3553,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4185,7 +3571,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4203,7 +3589,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4221,7 +3607,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4239,7 +3625,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4257,7 +3643,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4275,7 +3661,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4293,7 +3679,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4311,7 +3697,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4329,7 +3715,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4347,7 +3733,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4365,7 +3751,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4383,7 +3769,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4401,7 +3787,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4419,7 +3805,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4438,21 +3824,20 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="47.75" customWidth="1"/>
@@ -4464,7 +3849,7 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4500,7 +3885,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4536,7 +3921,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4572,7 +3957,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4608,7 +3993,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4644,7 +4029,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4662,7 +4047,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4680,7 +4065,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4698,7 +4083,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4716,7 +4101,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4734,7 +4119,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4752,7 +4137,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4772,7 +4157,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4790,7 +4175,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4808,7 +4193,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4826,7 +4211,7 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4844,7 +4229,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4862,7 +4247,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4880,7 +4265,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4898,7 +4283,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4916,7 +4301,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4934,7 +4319,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4952,7 +4337,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4970,7 +4355,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4988,7 +4373,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5006,7 +4391,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5024,7 +4409,7 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5042,7 +4427,7 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5060,7 +4445,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5079,21 +4464,20 @@
       <c r="P29" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
@@ -5105,7 +4489,7 @@
     <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:19">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5146,7 +4530,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5187,7 +4571,7 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5228,7 +4612,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5269,7 +4653,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5290,7 +4674,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5311,7 +4695,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5332,7 +4716,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5353,7 +4737,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5374,7 +4758,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5395,7 +4779,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5416,7 +4800,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5437,7 +4821,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5458,7 +4842,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5479,7 +4863,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5500,7 +4884,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5521,7 +4905,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5542,7 +4926,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5563,7 +4947,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5584,7 +4968,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5605,7 +4989,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5626,7 +5010,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5647,7 +5031,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5668,7 +5052,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5689,7 +5073,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5710,7 +5094,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5731,7 +5115,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5752,7 +5136,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5774,32 +5158,32 @@
       <c r="S28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="6" max="6" width="88.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5816,18 +5200,20 @@
         <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -5836,8 +5222,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5854,18 +5241,20 @@
         <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -5874,8 +5263,9 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5892,18 +5282,20 @@
         <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5912,8 +5304,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5930,18 +5323,20 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -5950,8 +5345,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5970,8 +5366,9 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5990,8 +5387,9 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6010,8 +5408,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6030,8 +5429,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6050,8 +5450,9 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6070,8 +5471,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6090,8 +5492,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6110,8 +5513,9 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6130,8 +5534,9 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6150,8 +5555,9 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6170,8 +5576,9 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6190,8 +5597,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6210,8 +5618,9 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6230,8 +5639,9 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6250,8 +5660,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6270,8 +5681,9 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6290,8 +5702,9 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6310,8 +5723,9 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6330,8 +5744,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6350,8 +5765,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6370,8 +5786,9 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6390,8 +5807,9 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6410,8 +5828,9 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6430,34 +5849,35 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="63.5" customWidth="1"/>
-    <col min="6" max="6" width="26.625" customWidth="1"/>
-    <col min="7" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="6" max="6" width="88.25" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6474,18 +5894,20 @@
         <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -6494,8 +5916,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6512,18 +5935,20 @@
         <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -6532,8 +5957,9 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6550,18 +5976,20 @@
         <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -6570,8 +5998,9 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6588,18 +6017,20 @@
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -6608,8 +6039,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6628,8 +6060,9 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6648,8 +6081,9 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6668,8 +6102,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6688,8 +6123,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6708,8 +6144,9 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6728,8 +6165,9 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6748,8 +6186,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6768,8 +6207,9 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6788,8 +6228,9 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6808,8 +6249,9 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6828,8 +6270,9 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6848,8 +6291,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6868,8 +6312,9 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6888,8 +6333,9 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6908,8 +6354,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6928,8 +6375,9 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6948,8 +6396,9 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6968,8 +6417,9 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6988,8 +6438,9 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -7008,8 +6459,9 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -7028,8 +6480,9 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -7048,8 +6501,9 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -7068,8 +6522,9 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -7088,9 +6543,10 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
     <t>line</t>
   </si>
@@ -1051,6 +1051,14 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
+  </si>
+  <si>
+    <t>发财礼包福利</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1480,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5146,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5219,7 +5227,7 @@
         <v>56</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>85</v>
@@ -5286,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>17</v>

--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -40,27 +40,18 @@
     <t>collect_config|对应的工作簿名</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_free_001</t>
-  </si>
-  <si>
     <t>gift_config1</t>
   </si>
   <si>
     <t>collect_config1</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v1v7_001</t>
-  </si>
-  <si>
     <t>gift_config2</t>
   </si>
   <si>
     <t>collect_config2</t>
   </si>
   <si>
-    <t>actp_buy_gift_bag_class_fclb_v8v12_001</t>
-  </si>
-  <si>
     <t>gift_config3</t>
   </si>
   <si>
@@ -90,6 +81,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -100,6 +92,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -110,6 +103,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -120,6 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +125,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,6 +147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,6 +158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,6 +201,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -212,6 +212,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -222,6 +223,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -249,6 +251,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -259,6 +262,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -277,6 +281,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -287,6 +292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -297,6 +303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -312,6 +319,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -322,6 +330,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -340,6 +349,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -350,6 +360,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -360,6 +371,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -370,6 +382,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -385,6 +398,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -395,6 +409,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -413,6 +428,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -423,6 +439,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -438,6 +455,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -448,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -463,6 +482,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,6 +493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,6 +504,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -498,6 +520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,6 +531,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,6 +542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -539,6 +564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -549,6 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -559,6 +586,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -574,6 +602,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -584,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -609,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -619,6 +651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +662,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,6 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -654,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -664,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -674,6 +711,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -689,6 +727,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -699,6 +738,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -709,6 +749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -754,6 +795,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -764,6 +806,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -774,6 +817,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -798,6 +842,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -808,6 +853,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -818,6 +864,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -830,6 +877,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -840,6 +888,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -855,6 +904,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -865,6 +915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -875,6 +926,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -890,6 +942,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -900,6 +953,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -910,6 +964,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -925,6 +980,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -935,6 +991,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,6 +1002,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,6 +1018,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -970,6 +1029,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -980,6 +1040,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,6 +1059,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,6 +1070,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,11 +1081,37 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>y",</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>actp_buy_gift_bag_class_fclb_free_00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v1v7_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_fclb_v8v12_002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,6 +1130,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1048,11 +1138,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1431,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1471,14 +1563,14 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1497,13 +1589,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1522,13 +1614,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1996,7 +2088,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2014,22 +2106,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2046,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3">
         <v>1613433600</v>
@@ -2573,28 +2665,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -2612,25 +2704,25 @@
         <v>10437</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2648,25 +2740,25 @@
         <v>10438</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2684,25 +2776,25 @@
         <v>10439</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2720,25 +2812,25 @@
         <v>10440</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>48</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2864,7 +2956,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3214,28 +3306,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3253,25 +3345,25 @@
         <v>10441</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>18</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3289,25 +3381,25 @@
         <v>10442</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3325,25 +3417,25 @@
         <v>10443</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>98</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -3361,25 +3453,25 @@
         <v>10444</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -3505,7 +3597,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -3854,28 +3946,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -3893,25 +3985,25 @@
         <v>10445</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>48</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -3929,25 +4021,25 @@
         <v>10446</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3">
         <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -3965,25 +4057,25 @@
         <v>10447</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3">
         <v>198</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4001,25 +4093,25 @@
         <v>10448</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3">
         <v>498</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4145,7 +4237,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -4494,31 +4586,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -4541,25 +4633,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -4582,25 +4674,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -4623,25 +4715,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5188,31 +5280,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5235,25 +5327,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5276,25 +5368,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -5317,25 +5409,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5861,8 +5953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5882,31 +5974,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -5929,25 +6021,25 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -5970,25 +6062,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -6011,25 +6103,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>

--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3">
-        <v>1613433600</v>
+        <v>1613404800</v>
       </c>
       <c r="F2" s="3">
         <v>1614009599</v>
@@ -4565,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2147,7 +2147,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="3">
-        <v>1613404800</v>
+        <v>1613433600</v>
       </c>
       <c r="F2" s="3">
         <v>1614009599</v>
@@ -4565,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/config_debug/act_ty_collect_words_config.xlsx
+++ b/config_debug/act_ty_collect_words_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24075" windowHeight="11790" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="platform_or_channel_or_level" sheetId="1" r:id="rId1"/>
@@ -1523,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4565,8 +4565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5259,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5324,7 +5324,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>71</v>
@@ -5365,7 +5365,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>71</v>
@@ -5406,7 +5406,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>71</v>
@@ -5954,7 +5954,7 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6018,7 +6018,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>71</v>
@@ -6059,7 +6059,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>71</v>
@@ -6100,7 +6100,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>71</v>
